--- a/biology/Zoologie/Gasteracantha/Gasteracantha.xlsx
+++ b/biology/Zoologie/Gasteracantha/Gasteracantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gasteracantha est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gasteracantha est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie et en Afrique subsaharienne sauf Gasteracantha cancriformis d'Amérique[1].
-Deux espèces font partie de la faune française d'Outre-Mer. Gasteracantha cancriformis est présente en Guyane[2] et aux Antilles françaises et Gasteracantha rhomboidea comorensis présente à Mayotte[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Océanie et en Afrique subsaharienne sauf Gasteracantha cancriformis d'Amérique.
+Deux espèces font partie de la faune française d'Outre-Mer. Gasteracantha cancriformis est présente en Guyane et aux Antilles françaises et Gasteracantha rhomboidea comorensis présente à Mayotte.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des araignées membres de ce genre sont étonnamment colorées avec des corps en forme de coquillage et des épines proéminentes sur leur abdomen[4].
-La région céphalique du céphalothorax est plus haute dans son milieu et décroit vers l'avant et vers l'arrière. Le quadrangle oculaire est plus large en arrière qu'en avant et les yeux médians sont en général plus petits. L'abdomen est grand, de forme quadrangulaire, transversalement oblong ou comprimé latéralement. La face avant de l'abdomen recouvre le pédoncule et une partie du thorax. L'abdomen est pourvu latéralement de deux épines antérieures, deux médianes et deux postérieures, les médianes étant en général beaucoup plus fines. Le tégument de l'abdomen est calleux. Il est imprimé sur sa face dorsale avec des points enfoncés ressemblants à des cachets de cire (sigilla), dont le nombre et la répartition sont déterminants d'un point du vue taxinomique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des araignées membres de ce genre sont étonnamment colorées avec des corps en forme de coquillage et des épines proéminentes sur leur abdomen.
+La région céphalique du céphalothorax est plus haute dans son milieu et décroit vers l'avant et vers l'arrière. Le quadrangle oculaire est plus large en arrière qu'en avant et les yeux médians sont en général plus petits. L'abdomen est grand, de forme quadrangulaire, transversalement oblong ou comprimé latéralement. La face avant de l'abdomen recouvre le pédoncule et une partie du thorax. L'abdomen est pourvu latéralement de deux épines antérieures, deux médianes et deux postérieures, les médianes étant en général beaucoup plus fines. Le tégument de l'abdomen est calleux. Il est imprimé sur sa face dorsale avec des points enfoncés ressemblants à des cachets de cire (sigilla), dont le nombre et la répartition sont déterminants d'un point du vue taxinomique.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les araignées du genre Gasreracantha construisent leurs toiles dans des espaces ouverts entre les branches d'arbres ou de buissons.
-Ces toiles, orbiculaires, possèdent des fils de suspension plusieurs fois plus long que le diamètre de la nappe. Des bandes sont souvent décorées avec de petites boules de soie le long de la spirale de la toile ensuite enchevêtrées avec des débris pour former un stabilimentum. Ces araignées n'utilisent pas de retraite, mais restent au centre de sa toile, même en plein jour[4].
+Ces toiles, orbiculaires, possèdent des fils de suspension plusieurs fois plus long que le diamètre de la nappe. Des bandes sont souvent décorées avec de petites boules de soie le long de la spirale de la toile ensuite enchevêtrées avec des débris pour former un stabilimentum. Ces araignées n'utilisent pas de retraite, mais restent au centre de sa toile, même en plein jour.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 24, 21/07/2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 24, 21/07/2023) :
 Gasteracantha aciculata (Pocock, 1898)
 Gasteracantha acutispina Dahl, 1914
 Gasteracantha audouini Guérin, 1838
@@ -706,12 +726,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Sundevall en 1833.
-Paurotylus[5] a été placé en synonymie par Emerit en 1982[6].
-Bunocrania[7] a été placé en synonymie par Levi en 1996[8].
-Ce genre fait partie de la sous-famille des Gasteracanthinae avec Micrathena[9].
+Paurotylus a été placé en synonymie par Emerit en 1982.
+Bunocrania a été placé en synonymie par Levi en 1996.
+Ce genre fait partie de la sous-famille des Gasteracanthinae avec Micrathena.
 </t>
         </is>
       </c>
@@ -740,9 +762,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Gasteracantha, dérivé du nomen nudum Gasteracanthe inventé par Pierre-André Latreille[10], est formé des deux mots grecs γαστήρ (gaster = ventre) et ἄκανθα (acantha = épine)[11] car il rassemble des araignées présentant des épines sur l'abdomen.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Gasteracantha, dérivé du nomen nudum Gasteracanthe inventé par Pierre-André Latreille, est formé des deux mots grecs γαστήρ (gaster = ventre) et ἄκανθα (acantha = épine) car il rassemble des araignées présentant des épines sur l'abdomen.
 </t>
         </is>
       </c>
@@ -771,7 +795,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sundevall, 1833 : Conspectus Arachnidum. Londini Gothorum, p. 1-39 (Gasteracantha p. 14).</t>
         </is>
